--- a/biology/Zoologie/Francolin_de_Latham/Francolin_de_Latham.xlsx
+++ b/biology/Zoologie/Francolin_de_Latham/Francolin_de_Latham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peliperdix lathami
 Le Francolin de Latham (Peliperdix lathami) est une espèce d'oiseaux galliformes de la famille des Phasianidae.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent au Sierra Leone, au Libéria, au sud de la Côte d’Ivoire, au sud du Ghana, au sud du Nigéria, au sud-ouest du Cameroun, au Zaïre, en Guinée équatoriale, au Gabon, au sud-ouest du Congo et dans l'extrême nord-ouest de l’Angola.
 </t>
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes :
 P. l. lathami Hartlaub, 1854 : toute la partie ouest de la distribution jusqu’au centre du Zaïre.
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le francolin de Latham est associé à la forêt primaire de basse altitude (jusqu’à 1 400 m en Ouganda), occasionnellement à la forêt secondaire dense, parfois même, comme en Sierra Leone, loin de la forêt primaire. Il occupe aussi la forêt galerie au Soudan et les fourrés côtiers au Ghana (Hennache &amp; Ottaviani 2011).
 </t>
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il consomme essentiellement des invertébrés (90%) composés de petits mollusques, des coléoptères, des termites Basidentitermes et des fourmis Psalidomyrmex avec une faible part de nourriture végétale (10%) constituée de fruits, dont ceux du palmier Elaeis sp., de graines, de pousses et de jeunes feuilles (Urban et al. 1986).
 </t>
@@ -637,7 +657,9 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un francolin très timide et difficile à observer, gardant de très près le couvert végétal. Il évolue en couples ou en groupes familiaux dans le sous-bois de la forêt, se nourrissant sur les sentiers de la forêt notamment après la pluie. Il recherche sa nourriture en grattant la litière de feuilles. Il est particulièrement actif et bruyant la nuit, émettant ses vocalises du sol ou des arbres, où il juche probablement. En cas d’alarme, il s’enfuit en courant dans le sous-bois ou bien se fige sur place. Mais, devant l’intrus, il s’envole au dernier moment, à coups d’ailes tremblants et sur une très courte distance (Madge &amp; McGowan 2002).
 </t>
@@ -668,7 +690,9 @@
           <t>Voix</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cri d’avertissement est un coo de type tourterelle et répété trois fois ou un kwee, coo, coo  fréquemment répété. On lui connaît aussi une série de sifflements aigus, uniformes et prolongés, ainsi qu’un cri flûté (Lippens &amp; Wille 1976). Un gloussement de contact est émis lorsque des individus se déplacent en groupe dans la forêt (Urban et al. 1986).
 </t>
@@ -699,7 +723,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction varie selon les conditions locales mais semble liée à la saison sèche. Les périodes de ponte s’étendent en février et en décembre dans l’ouest du Cameroun, en décembre dans le sud du Cameroun, en décembre et en avril au Zaïre, en août en Ouganda. Des nids contenant des œufs ont été signalés en janvier-février en Sierra Leone et en février au Ghana. Les œufs sont pondus sur un revêtement de feuilles mortes placé entre les ailes d’un arbre à renforts. Une étude a montré un taux de succès d’éclosion de 80% (Madge &amp; McGowan 2002).
 </t>
@@ -730,7 +756,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le francolin de Latham est difficile à observer, son plumage l’aidant à se confondre dans la végétation forestière. La destruction des forêts représente probablement la principale menace, à laquelle s’ajoute la pression de chasse et le braconnage. Les populations d’Ouganda et du Soudan sont certainement en déclin important en raison de la fragmentation de l’habitat (Hennache &amp; Ottaviani 2011).
 </t>
